--- a/dcycl/analysis/Simulator/Output Excel/Distance result.xlsx
+++ b/dcycl/analysis/Simulator/Output Excel/Distance result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapie\Creative Cloud Files\TUe\M1.2\cyclist-distance-crowdsourced\dcycl\analysis\Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapie\Creative Cloud Files\TUe\M1.2\cyclist-distance-crowdsourced\dcycl\analysis\Simulator\Output Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4BBC8-9E31-4E15-B8EA-A1214811E421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51818E60-2B2A-4BAD-800B-52A8AFEDBBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1710" yWindow="1688" windowWidth="14385" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esimation" sheetId="2" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
